--- a/commodity-application-modules/mobile-integration/Commodity Lab Item and Department_uuid.xlsx
+++ b/commodity-application-modules/mobile-integration/Commodity Lab Item and Department_uuid.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TAbdulfatai\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mails\Documents\NetBeansProjects\files_and_resources\commodity-application-modules\mobile-integration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9CE960-81AF-46C3-9C91-78F90E707398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB7E632-FF4D-489D-BD9C-8596167BD885}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42795" yWindow="150" windowWidth="14445" windowHeight="15360" xr2:uid="{3DE1FDCA-B5FE-4BED-8B32-FEF01A0E5E6B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3DE1FDCA-B5FE-4BED-8B32-FEF01A0E5E6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
-  <si>
-    <t>Item Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
   <si>
     <t>UUID</t>
   </si>
@@ -102,9 +99,6 @@
     <t>4ab7f97d-fbf8-40a3-82bd-30e84d5a30c9</t>
   </si>
   <si>
-    <t>Department Name</t>
-  </si>
-  <si>
     <t>VCT</t>
   </si>
   <si>
@@ -211,6 +205,42 @@
   </si>
   <si>
     <t>36ccbd54-ab90-4bab-88b9-eb7bd7e1df1a</t>
+  </si>
+  <si>
+    <t>InstanceType</t>
+  </si>
+  <si>
+    <t>fce0b4fc-9402-424a-aacb-f99599e51a9f</t>
+  </si>
+  <si>
+    <t>Receipt</t>
+  </si>
+  <si>
+    <t>c264f34b-c795-4576-9928-454d1fa20e09</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>Item Name(lab)</t>
+  </si>
+  <si>
+    <t>Department Name(lab)</t>
+  </si>
+  <si>
+    <t>Stockroom</t>
+  </si>
+  <si>
+    <t>2741bae2-c5de-43ef-891f-7ec2fd58f442</t>
+  </si>
+  <si>
+    <t>5452ec3e-2fe1-46de-8a6e-28c6442e4cc0</t>
+  </si>
+  <si>
+    <t>Lab StockRoom (lab)</t>
+  </si>
+  <si>
+    <t>Bulk Store (pharmacy)</t>
   </si>
 </sst>
 </file>
@@ -578,256 +608,304 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D950CA-F4AA-4F76-8D54-5A3641FDE9AF}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" customWidth="1"/>
-    <col min="2" max="2" width="56.28515625" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" customWidth="1"/>
+    <col min="2" max="2" width="56.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>25</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>26</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B19" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>27</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>28</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>29</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B22" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>30</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B23" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>31</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>32</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B25" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>33</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>34</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B27" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>35</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B28" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>36</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B29" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>37</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B30" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>38</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B31" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" t="s">
+    <row r="35" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="B35" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
